--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_9_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_9_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5962.759972776986</v>
+        <v>-12462.85544756941</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32051780.54886217</v>
+        <v>32051780.54886216</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9602082.325934159</v>
+        <v>9602082.325934157</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>368.3379045390508</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="D2" t="n">
-        <v>371.5724976088931</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="E2" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="F2" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H3" t="n">
-        <v>41.31829566194965</v>
+        <v>17.60573190595423</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>183.4695267241379</v>
       </c>
       <c r="X3" t="n">
-        <v>129.6061976475134</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y3" t="n">
         <v>125.2209214285714</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>152.2563247914409</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -882,7 +882,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>130.0710957475093</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>25.78804887231473</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="C5" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>111.7078248828975</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -980,7 +980,7 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D6" t="n">
-        <v>70.42682220891683</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E6" t="n">
         <v>93.17921052631581</v>
@@ -1034,7 +1034,7 @@
         <v>174.5731815300314</v>
       </c>
       <c r="V6" t="n">
-        <v>197.1263427586206</v>
+        <v>173.4137790026253</v>
       </c>
       <c r="W6" t="n">
         <v>183.4695267241379</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>57.86609352725468</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>79.86560526633781</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1135,16 +1135,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9.347123973539023</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>191.1033795776695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1223,13 +1223,13 @@
         <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
-        <v>58.83743624400457</v>
+        <v>82.55</v>
       </c>
       <c r="G9" t="n">
         <v>84.53123883647795</v>
       </c>
       <c r="H9" t="n">
-        <v>41.31829566194965</v>
+        <v>17.60573190595423</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>93.94468815934914</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1353,13 +1353,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>97.01783398489528</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
+        <v>388.9512294221411</v>
+      </c>
+      <c r="E11" t="n">
         <v>418.1856318563248</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
       <c r="F11" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>98.95178510572116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.0329169157446</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>56.06565422816109</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1612,16 +1612,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="E14" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>104.5283309252524</v>
       </c>
       <c r="H14" t="n">
         <v>272.6207125031721</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>98.95178510572116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>45.02390082230998</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.8720855447433</v>
+        <v>150.863276244312</v>
       </c>
       <c r="U16" t="n">
         <v>275.6161358490523</v>
@@ -1830,10 +1830,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>346.76651973356</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>396.054118850051</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.8481493585724</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>60.10477724960521</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.3388892342509</v>
+        <v>83.81959638603425</v>
       </c>
       <c r="H19" t="n">
         <v>133.1999654356588</v>
@@ -2061,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>385.554867001875</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>286.1914505690322</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>135.3368756478882</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>83.81959638603425</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I22" t="n">
         <v>69.83578017384922</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2326,7 +2326,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>255.950850558606</v>
       </c>
       <c r="W23" t="n">
-        <v>184.7823799869956</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2481,22 +2481,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>60.07073011995501</v>
       </c>
       <c r="G25" t="n">
-        <v>23.92542949176506</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>398.1302486828127</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>116.6395830120777</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2715,7 +2715,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2733,7 +2733,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
-        <v>21.37607145135496</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>173.4164943363247</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2797,13 +2797,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>156.701289099429</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>175.284818489681</v>
       </c>
     </row>
     <row r="30">
@@ -2958,16 +2958,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>85.1488807209182</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>275.6027656317444</v>
@@ -3012,10 +3012,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>200.1028142583222</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3031,16 +3031,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>395.5076644073176</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>176.1446634785937</v>
+        <v>213.5382021707743</v>
       </c>
     </row>
     <row r="33">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>120.3790897482003</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
@@ -3195,19 +3195,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>85.1488807209182</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3274,16 +3274,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>95.63937608431651</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
         <v>256.4799845637012</v>
@@ -3328,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>76.22909826824832</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3435,7 +3435,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.0937685836068</v>
@@ -3480,19 +3480,19 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>173.4164943363247</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>146.391735625387</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>326.8968166305627</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>338.6251682162973</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>23.92542949176459</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>74.42811009354939</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>239.8247518556274</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>253.5999082581257</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>398.1302486828127</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T42" t="n">
         <v>124.8306395731037</v>
@@ -3906,13 +3906,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>53.19117033386376</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
-        <v>6.12293108676132</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,16 +3985,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>361.4649050157285</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>248.9395529139698</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4042,10 +4042,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T45" t="n">
         <v>124.8306395731037</v>
@@ -4140,7 +4140,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>49.34995949258614</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
-        <v>129.2558279457871</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4200,10 +4200,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1253.60006400461</v>
+        <v>1300.684037991915</v>
       </c>
       <c r="C2" t="n">
-        <v>1253.60006400461</v>
+        <v>878.2743088441118</v>
       </c>
       <c r="D2" t="n">
-        <v>878.2743088441118</v>
+        <v>455.8645796963089</v>
       </c>
       <c r="E2" t="n">
-        <v>455.8645796963089</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="F2" t="n">
         <v>33.45485054850599</v>
@@ -4333,19 +4333,19 @@
         <v>447.4586260862676</v>
       </c>
       <c r="K2" t="n">
-        <v>447.4586260862676</v>
+        <v>861.4624016240291</v>
       </c>
       <c r="L2" t="n">
-        <v>447.4586260862676</v>
+        <v>1089.584687134481</v>
       </c>
       <c r="M2" t="n">
-        <v>675.5809115967197</v>
+        <v>1089.584687134481</v>
       </c>
       <c r="N2" t="n">
-        <v>675.5809115967197</v>
+        <v>1089.584687134481</v>
       </c>
       <c r="O2" t="n">
-        <v>675.5809115967197</v>
+        <v>1089.584687134481</v>
       </c>
       <c r="P2" t="n">
         <v>1089.584687134481</v>
@@ -4372,10 +4372,10 @@
         <v>1672.742527425299</v>
       </c>
       <c r="X2" t="n">
-        <v>1253.60006400461</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="Y2" t="n">
-        <v>1253.60006400461</v>
+        <v>1672.742527425299</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>539.6265955397988</v>
+        <v>515.6745109377832</v>
       </c>
       <c r="C3" t="n">
-        <v>433.1701343764411</v>
+        <v>409.2180497744255</v>
       </c>
       <c r="D3" t="n">
-        <v>338.0798455229943</v>
+        <v>314.1277609209787</v>
       </c>
       <c r="E3" t="n">
-        <v>243.959430849948</v>
+        <v>220.0073462479324</v>
       </c>
       <c r="F3" t="n">
-        <v>160.5755924661096</v>
+        <v>136.6235078640941</v>
       </c>
       <c r="G3" t="n">
-        <v>75.19050273229351</v>
+        <v>51.23841813027794</v>
       </c>
       <c r="H3" t="n">
         <v>33.45485054850599</v>
@@ -4409,19 +4409,19 @@
         <v>59.51852370896358</v>
       </c>
       <c r="J3" t="n">
-        <v>59.51852370896358</v>
+        <v>384.0768486751759</v>
       </c>
       <c r="K3" t="n">
-        <v>473.5222992467251</v>
+        <v>798.0806242129374</v>
       </c>
       <c r="L3" t="n">
-        <v>727.5621982554367</v>
+        <v>1141.565973793198</v>
       </c>
       <c r="M3" t="n">
-        <v>727.5621982554367</v>
+        <v>1141.565973793198</v>
       </c>
       <c r="N3" t="n">
-        <v>727.5621982554367</v>
+        <v>1141.565973793198</v>
       </c>
       <c r="O3" t="n">
         <v>1141.565973793198</v>
@@ -4451,10 +4451,10 @@
         <v>918.3316269994457</v>
       </c>
       <c r="X3" t="n">
-        <v>787.4162758403412</v>
+        <v>763.4641912383256</v>
       </c>
       <c r="Y3" t="n">
-        <v>660.9304966195619</v>
+        <v>636.9784120175464</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298.8218538120744</v>
+        <v>681.5333466690249</v>
       </c>
       <c r="C4" t="n">
-        <v>298.8218538120744</v>
+        <v>681.5333466690249</v>
       </c>
       <c r="D4" t="n">
-        <v>298.8218538120744</v>
+        <v>515.6553538705476</v>
       </c>
       <c r="E4" t="n">
-        <v>298.8218538120744</v>
+        <v>515.6553538705476</v>
       </c>
       <c r="F4" t="n">
-        <v>122.1147997738307</v>
+        <v>338.9482998323038</v>
       </c>
       <c r="G4" t="n">
-        <v>122.1147997738307</v>
+        <v>173.3570248581315</v>
       </c>
       <c r="H4" t="n">
-        <v>122.1147997738307</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I4" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="J4" t="n">
-        <v>33.45485054850599</v>
+        <v>120.0345357131959</v>
       </c>
       <c r="K4" t="n">
-        <v>33.45485054850599</v>
+        <v>394.7929902843314</v>
       </c>
       <c r="L4" t="n">
-        <v>329.0353075151023</v>
+        <v>808.796765822093</v>
       </c>
       <c r="M4" t="n">
-        <v>329.0353075151023</v>
+        <v>808.796765822093</v>
       </c>
       <c r="N4" t="n">
-        <v>743.0390830528639</v>
+        <v>808.796765822093</v>
       </c>
       <c r="O4" t="n">
         <v>1157.042858590625</v>
@@ -4515,25 +4515,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S4" t="n">
-        <v>1513.501158723296</v>
+        <v>1518.948259959197</v>
       </c>
       <c r="T4" t="n">
-        <v>1267.621712301751</v>
+        <v>1518.948259959197</v>
       </c>
       <c r="U4" t="n">
-        <v>989.1887115548567</v>
+        <v>1240.515259212303</v>
       </c>
       <c r="V4" t="n">
-        <v>702.2332034252872</v>
+        <v>953.5597510827333</v>
       </c>
       <c r="W4" t="n">
-        <v>430.2067990115788</v>
+        <v>681.5333466690249</v>
       </c>
       <c r="X4" t="n">
-        <v>298.8218538120744</v>
+        <v>681.5333466690249</v>
       </c>
       <c r="Y4" t="n">
-        <v>298.8218538120744</v>
+        <v>681.5333466690249</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1167.404463400896</v>
+        <v>878.2743088441118</v>
       </c>
       <c r="C5" t="n">
-        <v>744.9947342530927</v>
+        <v>878.2743088441118</v>
       </c>
       <c r="D5" t="n">
-        <v>322.5850051052897</v>
+        <v>455.8645796963089</v>
       </c>
       <c r="E5" t="n">
-        <v>322.5850051052897</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="F5" t="n">
-        <v>322.5850051052897</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G5" t="n">
-        <v>322.5850051052897</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H5" t="n">
         <v>33.45485054850599</v>
@@ -4567,7 +4567,7 @@
         <v>33.45485054850599</v>
       </c>
       <c r="J5" t="n">
-        <v>33.45485054850599</v>
+        <v>447.4586260862676</v>
       </c>
       <c r="K5" t="n">
         <v>447.4586260862676</v>
@@ -4582,13 +4582,13 @@
         <v>447.4586260862676</v>
       </c>
       <c r="O5" t="n">
-        <v>861.4624016240291</v>
+        <v>675.5809115967197</v>
       </c>
       <c r="P5" t="n">
-        <v>1275.466177161791</v>
+        <v>1089.584687134481</v>
       </c>
       <c r="Q5" t="n">
-        <v>1672.742527425299</v>
+        <v>1503.588462672243</v>
       </c>
       <c r="R5" t="n">
         <v>1672.742527425299</v>
@@ -4597,22 +4597,22 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T5" t="n">
-        <v>1452.675300298338</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="U5" t="n">
-        <v>1193.452997615355</v>
+        <v>1413.520224742316</v>
       </c>
       <c r="V5" t="n">
-        <v>1193.452997615355</v>
+        <v>1413.520224742316</v>
       </c>
       <c r="W5" t="n">
-        <v>1193.452997615355</v>
+        <v>1413.520224742316</v>
       </c>
       <c r="X5" t="n">
-        <v>1193.452997615355</v>
+        <v>1300.684037991915</v>
       </c>
       <c r="Y5" t="n">
-        <v>1193.452997615355</v>
+        <v>1300.684037991915</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>515.6745109377832</v>
+        <v>539.6265955397988</v>
       </c>
       <c r="C6" t="n">
-        <v>409.2180497744255</v>
+        <v>433.1701343764411</v>
       </c>
       <c r="D6" t="n">
         <v>338.0798455229943</v>
@@ -4646,22 +4646,22 @@
         <v>59.51852370896358</v>
       </c>
       <c r="J6" t="n">
-        <v>59.51852370896358</v>
+        <v>384.0768486751759</v>
       </c>
       <c r="K6" t="n">
-        <v>473.5222992467251</v>
+        <v>798.0806242129374</v>
       </c>
       <c r="L6" t="n">
-        <v>887.5260747844867</v>
+        <v>1141.565973793198</v>
       </c>
       <c r="M6" t="n">
-        <v>887.5260747844867</v>
+        <v>1141.565973793198</v>
       </c>
       <c r="N6" t="n">
-        <v>887.5260747844867</v>
+        <v>1141.565973793198</v>
       </c>
       <c r="O6" t="n">
-        <v>887.5260747844867</v>
+        <v>1141.565973793198</v>
       </c>
       <c r="P6" t="n">
         <v>1141.565973793198</v>
@@ -4682,16 +4682,16 @@
         <v>1302.771899204252</v>
       </c>
       <c r="V6" t="n">
-        <v>1103.654381266252</v>
+        <v>1127.606465868267</v>
       </c>
       <c r="W6" t="n">
-        <v>918.3316269994457</v>
+        <v>942.2837116014612</v>
       </c>
       <c r="X6" t="n">
-        <v>763.4641912383256</v>
+        <v>787.4162758403412</v>
       </c>
       <c r="Y6" t="n">
-        <v>636.9784120175464</v>
+        <v>660.9304966195619</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>835.3276141351269</v>
+        <v>202.787128325687</v>
       </c>
       <c r="C7" t="n">
-        <v>662.7659026183518</v>
+        <v>202.787128325687</v>
       </c>
       <c r="D7" t="n">
-        <v>604.3153030958723</v>
+        <v>202.787128325687</v>
       </c>
       <c r="E7" t="n">
-        <v>604.3153030958723</v>
+        <v>202.787128325687</v>
       </c>
       <c r="F7" t="n">
-        <v>427.6082490576285</v>
+        <v>202.787128325687</v>
       </c>
       <c r="G7" t="n">
-        <v>262.0169740834561</v>
+        <v>202.787128325687</v>
       </c>
       <c r="H7" t="n">
         <v>122.1147997738307</v>
@@ -4725,19 +4725,19 @@
         <v>33.45485054850599</v>
       </c>
       <c r="J7" t="n">
-        <v>120.0345357131959</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="K7" t="n">
-        <v>394.7929902843314</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="L7" t="n">
-        <v>808.796765822093</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="M7" t="n">
-        <v>1157.042858590625</v>
+        <v>447.4586260862676</v>
       </c>
       <c r="N7" t="n">
-        <v>1157.042858590625</v>
+        <v>743.0390830528639</v>
       </c>
       <c r="O7" t="n">
         <v>1157.042858590625</v>
@@ -4752,25 +4752,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S7" t="n">
-        <v>1672.742527425299</v>
+        <v>1513.501158723296</v>
       </c>
       <c r="T7" t="n">
-        <v>1672.742527425299</v>
+        <v>1267.621712301751</v>
       </c>
       <c r="U7" t="n">
-        <v>1394.309526678405</v>
+        <v>989.1887115548567</v>
       </c>
       <c r="V7" t="n">
-        <v>1107.354018548835</v>
+        <v>702.2332034252872</v>
       </c>
       <c r="W7" t="n">
-        <v>835.3276141351269</v>
+        <v>430.2067990115788</v>
       </c>
       <c r="X7" t="n">
-        <v>835.3276141351269</v>
+        <v>430.2067990115788</v>
       </c>
       <c r="Y7" t="n">
-        <v>835.3276141351269</v>
+        <v>202.787128325687</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.87163992136598</v>
+        <v>1310.125577359126</v>
       </c>
       <c r="C8" t="n">
-        <v>33.87163992136598</v>
+        <v>1300.684037991915</v>
       </c>
       <c r="D8" t="n">
-        <v>33.87163992136598</v>
+        <v>878.2743088441118</v>
       </c>
       <c r="E8" t="n">
-        <v>33.87163992136598</v>
+        <v>455.8645796963089</v>
       </c>
       <c r="F8" t="n">
-        <v>33.87163992136598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G8" t="n">
-        <v>33.87163992136598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H8" t="n">
-        <v>33.87163992136598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I8" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="J8" t="n">
-        <v>33.45485054850599</v>
+        <v>447.4586260862676</v>
       </c>
       <c r="K8" t="n">
         <v>447.4586260862676</v>
@@ -4837,19 +4837,19 @@
         <v>1672.742527425299</v>
       </c>
       <c r="U8" t="n">
-        <v>1413.520224742316</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="V8" t="n">
-        <v>1050.903274676143</v>
+        <v>1310.125577359126</v>
       </c>
       <c r="W8" t="n">
-        <v>646.047820087176</v>
+        <v>1310.125577359126</v>
       </c>
       <c r="X8" t="n">
-        <v>226.9053566664867</v>
+        <v>1310.125577359126</v>
       </c>
       <c r="Y8" t="n">
-        <v>33.87163992136598</v>
+        <v>1310.125577359126</v>
       </c>
     </row>
     <row r="9">
@@ -4871,34 +4871,34 @@
         <v>220.0073462479324</v>
       </c>
       <c r="F9" t="n">
-        <v>160.5755924661096</v>
+        <v>136.6235078640941</v>
       </c>
       <c r="G9" t="n">
-        <v>75.19050273229351</v>
+        <v>51.23841813027794</v>
       </c>
       <c r="H9" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="I9" t="n">
-        <v>33.45485054850599</v>
+        <v>59.51852370896358</v>
       </c>
       <c r="J9" t="n">
-        <v>33.45485054850599</v>
+        <v>384.0768486751759</v>
       </c>
       <c r="K9" t="n">
-        <v>33.45485054850599</v>
+        <v>798.0806242129374</v>
       </c>
       <c r="L9" t="n">
-        <v>447.4586260862676</v>
+        <v>1141.565973793198</v>
       </c>
       <c r="M9" t="n">
-        <v>447.4586260862676</v>
+        <v>1141.565973793198</v>
       </c>
       <c r="N9" t="n">
-        <v>447.4586260862676</v>
+        <v>1141.565973793198</v>
       </c>
       <c r="O9" t="n">
-        <v>861.4624016240291</v>
+        <v>1141.565973793198</v>
       </c>
       <c r="P9" t="n">
         <v>1141.565973793198</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>545.5111833101848</v>
+        <v>474.8135327393955</v>
       </c>
       <c r="C10" t="n">
-        <v>545.5111833101848</v>
+        <v>474.8135327393955</v>
       </c>
       <c r="D10" t="n">
-        <v>545.5111833101848</v>
+        <v>474.8135327393955</v>
       </c>
       <c r="E10" t="n">
-        <v>375.7531795609221</v>
+        <v>305.0555289901328</v>
       </c>
       <c r="F10" t="n">
-        <v>199.0461255226783</v>
+        <v>128.348474951889</v>
       </c>
       <c r="G10" t="n">
         <v>33.45485054850599</v>
@@ -4968,13 +4968,13 @@
         <v>394.7929902843314</v>
       </c>
       <c r="L10" t="n">
-        <v>808.796765822093</v>
+        <v>743.0390830528639</v>
       </c>
       <c r="M10" t="n">
-        <v>808.796765822093</v>
+        <v>1157.042858590625</v>
       </c>
       <c r="N10" t="n">
-        <v>808.796765822093</v>
+        <v>1157.042858590625</v>
       </c>
       <c r="O10" t="n">
         <v>1157.042858590625</v>
@@ -4989,25 +4989,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S10" t="n">
-        <v>1672.742527425299</v>
+        <v>1513.501158723296</v>
       </c>
       <c r="T10" t="n">
-        <v>1672.742527425299</v>
+        <v>1267.621712301751</v>
       </c>
       <c r="U10" t="n">
-        <v>1394.309526678405</v>
+        <v>989.1887115548567</v>
       </c>
       <c r="V10" t="n">
-        <v>1107.354018548835</v>
+        <v>702.2332034252872</v>
       </c>
       <c r="W10" t="n">
-        <v>835.3276141351269</v>
+        <v>702.2332034252872</v>
       </c>
       <c r="X10" t="n">
-        <v>835.3276141351269</v>
+        <v>702.2332034252872</v>
       </c>
       <c r="Y10" t="n">
-        <v>737.329802029172</v>
+        <v>474.8135327393955</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1153.648765918023</v>
+        <v>848.7446094156434</v>
       </c>
       <c r="C11" t="n">
-        <v>1153.648765918023</v>
+        <v>848.7446094156434</v>
       </c>
       <c r="D11" t="n">
-        <v>731.2390367702201</v>
+        <v>455.8645796963089</v>
       </c>
       <c r="E11" t="n">
-        <v>731.2390367702201</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="F11" t="n">
-        <v>308.8293076224172</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G11" t="n">
-        <v>308.8293076224172</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H11" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="I11" t="n">
-        <v>83.79828774524211</v>
+        <v>83.79828774524199</v>
       </c>
       <c r="J11" t="n">
         <v>195.5292216073326</v>
@@ -5050,7 +5050,7 @@
         <v>570.7285396968687</v>
       </c>
       <c r="M11" t="n">
-        <v>801.8833353847203</v>
+        <v>801.8833353847202</v>
       </c>
       <c r="N11" t="n">
         <v>1036.7784573317</v>
@@ -5080,13 +5080,13 @@
         <v>1672.742527425299</v>
       </c>
       <c r="W11" t="n">
-        <v>1672.742527425299</v>
+        <v>1267.887072836333</v>
       </c>
       <c r="X11" t="n">
-        <v>1253.60006400461</v>
+        <v>848.7446094156434</v>
       </c>
       <c r="Y11" t="n">
-        <v>1153.648765918023</v>
+        <v>848.7446094156434</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>33.45485054850599</v>
       </c>
       <c r="I12" t="n">
-        <v>57.70569792707142</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J12" t="n">
-        <v>124.2518767018075</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K12" t="n">
-        <v>237.9898955472398</v>
+        <v>588.6118936739097</v>
       </c>
       <c r="L12" t="n">
-        <v>390.9246980282439</v>
+        <v>741.5466961549138</v>
       </c>
       <c r="M12" t="n">
-        <v>569.3923990549604</v>
+        <v>920.0143971816303</v>
       </c>
       <c r="N12" t="n">
-        <v>752.5836090806357</v>
+        <v>1103.205607207306</v>
       </c>
       <c r="O12" t="n">
-        <v>920.1677769462458</v>
+        <v>1270.789775072916</v>
       </c>
       <c r="P12" t="n">
-        <v>1097.834127233839</v>
+        <v>1405.290844266289</v>
       </c>
       <c r="Q12" t="n">
         <v>1511.8379027716</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>364.6356700609827</v>
+        <v>679.454104972285</v>
       </c>
       <c r="C13" t="n">
-        <v>192.0739585442076</v>
+        <v>679.454104972285</v>
       </c>
       <c r="D13" t="n">
-        <v>33.45485054850599</v>
+        <v>679.454104972285</v>
       </c>
       <c r="E13" t="n">
-        <v>33.45485054850599</v>
+        <v>509.6961012230222</v>
       </c>
       <c r="F13" t="n">
-        <v>33.45485054850599</v>
+        <v>332.9890471847784</v>
       </c>
       <c r="G13" t="n">
-        <v>33.45485054850599</v>
+        <v>168.0002701804846</v>
       </c>
       <c r="H13" t="n">
         <v>33.45485054850599</v>
@@ -5202,16 +5202,16 @@
         <v>75.20378455015359</v>
       </c>
       <c r="K13" t="n">
-        <v>143.8101078806224</v>
+        <v>418.568562451758</v>
       </c>
       <c r="L13" t="n">
-        <v>231.6025814132115</v>
+        <v>769.1447895942089</v>
       </c>
       <c r="M13" t="n">
-        <v>324.1674353402283</v>
+        <v>861.7096435212255</v>
       </c>
       <c r="N13" t="n">
-        <v>621.5353950385435</v>
+        <v>952.0735121144794</v>
       </c>
       <c r="O13" t="n">
         <v>1035.539170576305</v>
@@ -5229,22 +5229,22 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T13" t="n">
-        <v>1429.437390511417</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="U13" t="n">
-        <v>1151.037253290152</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="V13" t="n">
-        <v>864.0817451605828</v>
+        <v>1616.11055345746</v>
       </c>
       <c r="W13" t="n">
-        <v>592.0553407468744</v>
+        <v>1344.084149043751</v>
       </c>
       <c r="X13" t="n">
-        <v>592.0553407468744</v>
+        <v>1098.692394377164</v>
       </c>
       <c r="Y13" t="n">
-        <v>364.6356700609827</v>
+        <v>871.2727236912722</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1153.648765918023</v>
+        <v>836.8232094219902</v>
       </c>
       <c r="C14" t="n">
-        <v>1153.648765918023</v>
+        <v>836.8232094219902</v>
       </c>
       <c r="D14" t="n">
-        <v>1153.648765918023</v>
+        <v>414.4134802741873</v>
       </c>
       <c r="E14" t="n">
-        <v>731.2390367702201</v>
+        <v>414.4134802741873</v>
       </c>
       <c r="F14" t="n">
-        <v>308.8293076224172</v>
+        <v>414.4134802741873</v>
       </c>
       <c r="G14" t="n">
         <v>308.8293076224172</v>
       </c>
       <c r="H14" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I14" t="n">
-        <v>83.79828774524186</v>
+        <v>83.79828774524252</v>
       </c>
       <c r="J14" t="n">
-        <v>195.5292216073325</v>
+        <v>195.5292216073331</v>
       </c>
       <c r="K14" t="n">
-        <v>362.9849282099028</v>
+        <v>362.9849282099033</v>
       </c>
       <c r="L14" t="n">
-        <v>570.7285396968684</v>
+        <v>570.728539696869</v>
       </c>
       <c r="M14" t="n">
-        <v>801.88333538472</v>
+        <v>801.8833353847206</v>
       </c>
       <c r="N14" t="n">
         <v>1036.7784573317</v>
@@ -5308,22 +5308,22 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T14" t="n">
-        <v>1672.742527425299</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="U14" t="n">
-        <v>1672.742527425299</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="V14" t="n">
-        <v>1672.742527425299</v>
+        <v>836.8232094219902</v>
       </c>
       <c r="W14" t="n">
-        <v>1672.742527425299</v>
+        <v>836.8232094219902</v>
       </c>
       <c r="X14" t="n">
-        <v>1253.60006400461</v>
+        <v>836.8232094219902</v>
       </c>
       <c r="Y14" t="n">
-        <v>1153.648765918023</v>
+        <v>836.8232094219902</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>68.24978812594551</v>
       </c>
       <c r="H15" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I15" t="n">
-        <v>83.76937108752902</v>
+        <v>57.70569792707142</v>
       </c>
       <c r="J15" t="n">
-        <v>150.3155498622651</v>
+        <v>167.4171577960267</v>
       </c>
       <c r="K15" t="n">
-        <v>564.3193254000266</v>
+        <v>281.155176641459</v>
       </c>
       <c r="L15" t="n">
-        <v>717.2541278810307</v>
+        <v>434.089979122463</v>
       </c>
       <c r="M15" t="n">
-        <v>895.7218289077473</v>
+        <v>612.5576801491795</v>
       </c>
       <c r="N15" t="n">
-        <v>1078.913038933423</v>
+        <v>795.748890174855</v>
       </c>
       <c r="O15" t="n">
-        <v>1246.497206799033</v>
+        <v>963.3330580404649</v>
       </c>
       <c r="P15" t="n">
-        <v>1380.998275992406</v>
+        <v>1097.834127233838</v>
       </c>
       <c r="Q15" t="n">
         <v>1511.8379027716</v>
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>251.4952497645841</v>
+        <v>210.1619045867498</v>
       </c>
       <c r="C16" t="n">
-        <v>78.933538247809</v>
+        <v>210.1619045867498</v>
       </c>
       <c r="D16" t="n">
-        <v>78.933538247809</v>
+        <v>210.1619045867498</v>
       </c>
       <c r="E16" t="n">
-        <v>78.933538247809</v>
+        <v>210.1619045867498</v>
       </c>
       <c r="F16" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G16" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H16" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I16" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J16" t="n">
-        <v>161.7834697148434</v>
+        <v>75.20378455015359</v>
       </c>
       <c r="K16" t="n">
-        <v>505.1482476164479</v>
+        <v>143.8101078806224</v>
       </c>
       <c r="L16" t="n">
-        <v>592.940721149037</v>
+        <v>304.3051044129577</v>
       </c>
       <c r="M16" t="n">
-        <v>1006.944496686799</v>
+        <v>718.3088799507193</v>
       </c>
       <c r="N16" t="n">
-        <v>1097.308365280052</v>
+        <v>1132.312655488481</v>
       </c>
       <c r="O16" t="n">
-        <v>1180.774023741878</v>
+        <v>1546.316431026242</v>
       </c>
       <c r="P16" t="n">
-        <v>1449.542946114066</v>
+        <v>1617.735720978399</v>
       </c>
       <c r="Q16" t="n">
         <v>1667.182735391305</v>
@@ -5463,25 +5463,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S16" t="n">
-        <v>1524.001055161996</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T16" t="n">
-        <v>1280.695918248114</v>
+        <v>1520.355379703772</v>
       </c>
       <c r="U16" t="n">
-        <v>1002.295781026849</v>
+        <v>1241.955242482507</v>
       </c>
       <c r="V16" t="n">
-        <v>715.3402728972796</v>
+        <v>954.9997343529376</v>
       </c>
       <c r="W16" t="n">
-        <v>443.3138684835712</v>
+        <v>682.9733299392291</v>
       </c>
       <c r="X16" t="n">
-        <v>443.3138684835712</v>
+        <v>437.5815752726415</v>
       </c>
       <c r="Y16" t="n">
-        <v>443.3138684835712</v>
+        <v>210.1619045867498</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>855.9192452014108</v>
+        <v>433.509516053608</v>
       </c>
       <c r="C17" t="n">
-        <v>855.9192452014108</v>
+        <v>433.509516053608</v>
       </c>
       <c r="D17" t="n">
-        <v>855.9192452014108</v>
+        <v>433.509516053608</v>
       </c>
       <c r="E17" t="n">
-        <v>855.9192452014108</v>
+        <v>433.509516053608</v>
       </c>
       <c r="F17" t="n">
         <v>433.509516053608</v>
       </c>
       <c r="G17" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H17" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I17" t="n">
-        <v>83.79828774524211</v>
+        <v>83.79828774524186</v>
       </c>
       <c r="J17" t="n">
-        <v>195.5292216073325</v>
+        <v>195.5292216073327</v>
       </c>
       <c r="K17" t="n">
-        <v>362.9849282099028</v>
+        <v>362.984928209903</v>
       </c>
       <c r="L17" t="n">
-        <v>570.7285396968684</v>
+        <v>570.7285396968687</v>
       </c>
       <c r="M17" t="n">
-        <v>801.8833353847201</v>
+        <v>801.8833353847205</v>
       </c>
       <c r="N17" t="n">
         <v>1036.7784573317</v>
@@ -5536,31 +5536,31 @@
         <v>1447.888527710259</v>
       </c>
       <c r="Q17" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R17" t="n">
         <v>1672.742527425299</v>
       </c>
       <c r="S17" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T17" t="n">
-        <v>1672.742527425299</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="U17" t="n">
-        <v>1672.742527425299</v>
+        <v>1146.395677971862</v>
       </c>
       <c r="V17" t="n">
-        <v>1672.742527425299</v>
+        <v>783.7787279056888</v>
       </c>
       <c r="W17" t="n">
-        <v>1267.887072836332</v>
+        <v>783.7787279056888</v>
       </c>
       <c r="X17" t="n">
-        <v>855.9192452014108</v>
+        <v>783.7787279056888</v>
       </c>
       <c r="Y17" t="n">
-        <v>855.9192452014108</v>
+        <v>783.7787279056888</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>68.24978812594551</v>
       </c>
       <c r="H18" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I18" t="n">
-        <v>57.70569792707141</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J18" t="n">
-        <v>448.8102016680198</v>
+        <v>150.3155498622651</v>
       </c>
       <c r="K18" t="n">
-        <v>562.5482205134522</v>
+        <v>264.0535687076974</v>
       </c>
       <c r="L18" t="n">
-        <v>875.3561299385429</v>
+        <v>416.9883711887014</v>
       </c>
       <c r="M18" t="n">
-        <v>1053.82383096526</v>
+        <v>595.4560722154181</v>
       </c>
       <c r="N18" t="n">
-        <v>1237.015040990935</v>
+        <v>778.6472822410934</v>
       </c>
       <c r="O18" t="n">
-        <v>1404.599208856545</v>
+        <v>946.2314501067035</v>
       </c>
       <c r="P18" t="n">
-        <v>1539.100278049918</v>
+        <v>1215.006905328178</v>
       </c>
       <c r="Q18" t="n">
         <v>1629.01068086594</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>640.9491895295419</v>
+        <v>1008.112483353833</v>
       </c>
       <c r="C19" t="n">
-        <v>640.9491895295419</v>
+        <v>835.5507718370578</v>
       </c>
       <c r="D19" t="n">
-        <v>580.2372933178194</v>
+        <v>669.6727790385805</v>
       </c>
       <c r="E19" t="n">
-        <v>580.2372933178194</v>
+        <v>499.9147752893178</v>
       </c>
       <c r="F19" t="n">
-        <v>403.5302392795757</v>
+        <v>323.207721251074</v>
       </c>
       <c r="G19" t="n">
         <v>238.5414622752818</v>
@@ -5670,7 +5670,7 @@
         <v>103.9960426433032</v>
       </c>
       <c r="I19" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J19" t="n">
         <v>161.7834697148434</v>
@@ -5679,19 +5679,19 @@
         <v>505.1482476164479</v>
       </c>
       <c r="L19" t="n">
-        <v>919.1520231542094</v>
+        <v>592.940721149037</v>
       </c>
       <c r="M19" t="n">
-        <v>1333.155798691971</v>
+        <v>685.5055750760537</v>
       </c>
       <c r="N19" t="n">
-        <v>1462.850772564417</v>
+        <v>775.8694436693075</v>
       </c>
       <c r="O19" t="n">
-        <v>1546.316431026242</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P19" t="n">
-        <v>1617.735720978398</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q19" t="n">
         <v>1667.182735391305</v>
@@ -5709,16 +5709,16 @@
         <v>1672.742527425299</v>
       </c>
       <c r="V19" t="n">
-        <v>1385.78701929573</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="W19" t="n">
-        <v>1113.760614882021</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="X19" t="n">
-        <v>868.3688602154336</v>
+        <v>1427.350772758712</v>
       </c>
       <c r="Y19" t="n">
-        <v>640.9491895295419</v>
+        <v>1199.93110207282</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.9042111564605</v>
+        <v>997.966246429572</v>
       </c>
       <c r="C20" t="n">
-        <v>33.45485054850598</v>
+        <v>997.966246429572</v>
       </c>
       <c r="D20" t="n">
-        <v>33.45485054850598</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="E20" t="n">
-        <v>33.45485054850598</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="F20" t="n">
-        <v>33.45485054850598</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="G20" t="n">
-        <v>33.45485054850598</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="H20" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I20" t="n">
-        <v>83.79828774524185</v>
+        <v>83.79828774524252</v>
       </c>
       <c r="J20" t="n">
-        <v>195.5292216073325</v>
+        <v>195.5292216073331</v>
       </c>
       <c r="K20" t="n">
-        <v>362.9849282099028</v>
+        <v>362.9849282099033</v>
       </c>
       <c r="L20" t="n">
-        <v>570.7285396968684</v>
+        <v>570.728539696869</v>
       </c>
       <c r="M20" t="n">
-        <v>801.8833353847201</v>
+        <v>801.8833353847206</v>
       </c>
       <c r="N20" t="n">
         <v>1036.7784573317</v>
@@ -5779,25 +5779,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S20" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T20" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="U20" t="n">
-        <v>1672.742527425299</v>
+        <v>1360.583196495746</v>
       </c>
       <c r="V20" t="n">
-        <v>1672.742527425299</v>
+        <v>997.966246429572</v>
       </c>
       <c r="W20" t="n">
-        <v>1672.742527425299</v>
+        <v>997.966246429572</v>
       </c>
       <c r="X20" t="n">
-        <v>1253.60006400461</v>
+        <v>997.966246429572</v>
       </c>
       <c r="Y20" t="n">
-        <v>845.3139403042634</v>
+        <v>997.966246429572</v>
       </c>
     </row>
     <row r="21">
@@ -5825,28 +5825,28 @@
         <v>68.24978812594551</v>
       </c>
       <c r="H21" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I21" t="n">
-        <v>57.70569792707142</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J21" t="n">
-        <v>124.2518767018075</v>
+        <v>150.3155498622651</v>
       </c>
       <c r="K21" t="n">
-        <v>237.9898955472398</v>
+        <v>264.0535687076974</v>
       </c>
       <c r="L21" t="n">
-        <v>390.9246980282439</v>
+        <v>416.9883711887014</v>
       </c>
       <c r="M21" t="n">
-        <v>569.3923990549604</v>
+        <v>595.456072215418</v>
       </c>
       <c r="N21" t="n">
-        <v>752.5836090806357</v>
+        <v>778.6472822410933</v>
       </c>
       <c r="O21" t="n">
-        <v>963.3330580404647</v>
+        <v>946.2314501067034</v>
       </c>
       <c r="P21" t="n">
         <v>1097.834127233838</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>589.9687229941687</v>
+        <v>1008.112483353833</v>
       </c>
       <c r="C22" t="n">
-        <v>417.4070114773937</v>
+        <v>835.5507718370578</v>
       </c>
       <c r="D22" t="n">
-        <v>280.703096681547</v>
+        <v>669.6727790385805</v>
       </c>
       <c r="E22" t="n">
-        <v>280.703096681547</v>
+        <v>499.9147752893178</v>
       </c>
       <c r="F22" t="n">
-        <v>103.9960426433032</v>
+        <v>323.207721251074</v>
       </c>
       <c r="G22" t="n">
-        <v>103.9960426433032</v>
+        <v>238.5414622752818</v>
       </c>
       <c r="H22" t="n">
         <v>103.9960426433032</v>
       </c>
       <c r="I22" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J22" t="n">
         <v>161.7834697148434</v>
@@ -5916,16 +5916,16 @@
         <v>505.1482476164479</v>
       </c>
       <c r="L22" t="n">
-        <v>592.940721149037</v>
+        <v>769.144789594209</v>
       </c>
       <c r="M22" t="n">
-        <v>1006.944496686799</v>
+        <v>861.7096435212256</v>
       </c>
       <c r="N22" t="n">
-        <v>1294.657997700084</v>
+        <v>952.0735121144794</v>
       </c>
       <c r="O22" t="n">
-        <v>1378.12365616191</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P22" t="n">
         <v>1449.542946114066</v>
@@ -5943,19 +5943,19 @@
         <v>1672.742527425299</v>
       </c>
       <c r="U22" t="n">
-        <v>1394.342390204034</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="V22" t="n">
-        <v>1107.386882074465</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="W22" t="n">
-        <v>835.3604776607563</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="X22" t="n">
-        <v>589.9687229941687</v>
+        <v>1427.350772758712</v>
       </c>
       <c r="Y22" t="n">
-        <v>589.9687229941687</v>
+        <v>1199.93110207282</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1754.536245353315</v>
+        <v>1590.483051967699</v>
       </c>
       <c r="C23" t="n">
-        <v>1316.393772536738</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="D23" t="n">
-        <v>880.4839877111824</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E23" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F23" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G23" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867024</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P23" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q23" t="n">
         <v>2243.650993163596</v>
@@ -6016,25 +6016,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U23" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V23" t="n">
-        <v>2360.327577447737</v>
+        <v>1590.483051967699</v>
       </c>
       <c r="W23" t="n">
-        <v>2173.678708774004</v>
+        <v>1590.483051967699</v>
       </c>
       <c r="X23" t="n">
-        <v>1754.536245353315</v>
+        <v>1590.483051967699</v>
       </c>
       <c r="Y23" t="n">
-        <v>1754.536245353315</v>
+        <v>1590.483051967699</v>
       </c>
     </row>
     <row r="24">
@@ -6047,31 +6047,31 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E24" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043101</v>
       </c>
       <c r="J24" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K24" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L24" t="n">
         <v>551.5786779960906</v>
@@ -6123,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>616.081764785142</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C25" t="n">
-        <v>443.520053268367</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D25" t="n">
-        <v>443.520053268367</v>
+        <v>277.6420604698892</v>
       </c>
       <c r="E25" t="n">
-        <v>443.520053268367</v>
+        <v>107.8840567206265</v>
       </c>
       <c r="F25" t="n">
-        <v>266.8129992301232</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G25" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H25" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J25" t="n">
-        <v>165.2449146144897</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K25" t="n">
-        <v>262.045015182048</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L25" t="n">
-        <v>385.9158168003459</v>
+        <v>733.4227107706873</v>
       </c>
       <c r="M25" t="n">
-        <v>970.0968922186607</v>
+        <v>1317.603786189002</v>
       </c>
       <c r="N25" t="n">
-        <v>1539.854607180195</v>
+        <v>1887.361501150536</v>
       </c>
       <c r="O25" t="n">
-        <v>1657.620488527957</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P25" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
@@ -6183,16 +6183,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V25" t="n">
-        <v>1552.738213270317</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W25" t="n">
-        <v>1280.711808856609</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X25" t="n">
         <v>1035.320054190021</v>
       </c>
       <c r="Y25" t="n">
-        <v>807.9003835041292</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1782.900983623584</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C26" t="n">
-        <v>1344.758510807007</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D26" t="n">
-        <v>908.8487259814518</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E26" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F26" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H26" t="n">
         <v>47.20655154895473</v>
@@ -6226,22 +6226,22 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M26" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N26" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O26" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P26" t="n">
         <v>2043.069798152528</v>
@@ -6253,25 +6253,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T26" t="n">
-        <v>2202.043447044273</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U26" t="n">
-        <v>2202.043447044273</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V26" t="n">
-        <v>2202.043447044273</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="W26" t="n">
-        <v>2202.043447044273</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="X26" t="n">
-        <v>1782.900983623584</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="Y26" t="n">
-        <v>1782.900983623584</v>
+        <v>1118.582560671843</v>
       </c>
     </row>
     <row r="27">
@@ -6308,22 +6308,22 @@
         <v>175.316627066898</v>
       </c>
       <c r="K27" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L27" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M27" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N27" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O27" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P27" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q27" t="n">
         <v>1614.947661807679</v>
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>919.7301297068562</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C28" t="n">
         <v>919.7301297068562</v>
@@ -6384,25 +6384,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="J28" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K28" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L28" t="n">
-        <v>326.783117436994</v>
+        <v>588.0160255186817</v>
       </c>
       <c r="M28" t="n">
-        <v>910.9641928553087</v>
+        <v>718.6204178572111</v>
       </c>
       <c r="N28" t="n">
-        <v>1480.721907816843</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O28" t="n">
-        <v>2018.157038390386</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P28" t="n">
-        <v>2274.089213540313</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q28" t="n">
         <v>2343.856484770969</v>
@@ -6414,22 +6414,22 @@
         <v>2215.901038951971</v>
       </c>
       <c r="T28" t="n">
-        <v>2194.309047586966</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U28" t="n">
-        <v>1915.922415635709</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V28" t="n">
-        <v>1628.966907506139</v>
+        <v>1686.698306725808</v>
       </c>
       <c r="W28" t="n">
-        <v>1356.940503092431</v>
+        <v>1686.698306725808</v>
       </c>
       <c r="X28" t="n">
-        <v>1111.548748425843</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="Y28" t="n">
-        <v>1111.548748425843</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1782.900983623584</v>
+        <v>485.3490243655314</v>
       </c>
       <c r="C29" t="n">
-        <v>1344.758510807007</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="D29" t="n">
-        <v>908.8487259814518</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="E29" t="n">
-        <v>475.073981139747</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435808</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L29" t="n">
         <v>805.4408022867025</v>
@@ -6481,7 +6481,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P29" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q29" t="n">
         <v>2243.650993163596</v>
@@ -6490,25 +6490,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U29" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V29" t="n">
-        <v>2202.043447044273</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W29" t="n">
-        <v>2202.043447044273</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X29" t="n">
-        <v>1782.900983623584</v>
+        <v>662.4043965773304</v>
       </c>
       <c r="Y29" t="n">
-        <v>1782.900983623584</v>
+        <v>485.3490243655314</v>
       </c>
     </row>
     <row r="30">
@@ -6524,13 +6524,13 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D30" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E30" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F30" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G30" t="n">
         <v>79.1492015823585</v>
@@ -6539,25 +6539,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I30" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043085</v>
       </c>
       <c r="J30" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K30" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210684</v>
       </c>
       <c r="L30" t="n">
         <v>551.5786779960906</v>
       </c>
       <c r="M30" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N30" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O30" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P30" t="n">
         <v>1488.088567599445</v>
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>471.655226289377</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C31" t="n">
-        <v>299.093514772602</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D31" t="n">
-        <v>133.2155219741246</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E31" t="n">
-        <v>47.20655154895474</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F31" t="n">
-        <v>47.20655154895474</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G31" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H31" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J31" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K31" t="n">
-        <v>202.912315818696</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L31" t="n">
-        <v>744.992999204955</v>
+        <v>413.3628026016838</v>
       </c>
       <c r="M31" t="n">
-        <v>1329.17407462327</v>
+        <v>897.9345369632205</v>
       </c>
       <c r="N31" t="n">
-        <v>1635.885026789087</v>
+        <v>1467.692251924755</v>
       </c>
       <c r="O31" t="n">
-        <v>2173.32015736263</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P31" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q31" t="n">
         <v>2343.856484770969</v>
@@ -6648,25 +6648,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S31" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T31" t="n">
-        <v>1973.653814855378</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U31" t="n">
-        <v>1695.267182904121</v>
+        <v>1937.514407000714</v>
       </c>
       <c r="V31" t="n">
-        <v>1408.311674774552</v>
+        <v>1650.558898871144</v>
       </c>
       <c r="W31" t="n">
-        <v>1136.285270360843</v>
+        <v>1650.558898871144</v>
       </c>
       <c r="X31" t="n">
-        <v>890.8935156942559</v>
+        <v>1448.434844064758</v>
       </c>
       <c r="Y31" t="n">
-        <v>663.4738450083642</v>
+        <v>1221.015173378866</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2182.403674944107</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="C32" t="n">
-        <v>1744.26120212753</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D32" t="n">
-        <v>1308.351417301975</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E32" t="n">
-        <v>874.5766724602698</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F32" t="n">
         <v>446.7092428694776</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M32" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N32" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O32" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P32" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q32" t="n">
         <v>2243.650993163596</v>
@@ -6727,25 +6727,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T32" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U32" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V32" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W32" t="n">
-        <v>2360.327577447737</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X32" t="n">
-        <v>2360.327577447737</v>
+        <v>662.4043965773304</v>
       </c>
       <c r="Y32" t="n">
-        <v>2182.403674944107</v>
+        <v>446.7092428694776</v>
       </c>
     </row>
     <row r="33">
@@ -6758,25 +6758,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D33" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E33" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F33" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G33" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I33" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043091</v>
       </c>
       <c r="J33" t="n">
         <v>175.316627066898</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>471.655226289377</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C34" t="n">
-        <v>299.093514772602</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D34" t="n">
-        <v>133.2155219741246</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E34" t="n">
-        <v>133.2155219741246</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F34" t="n">
-        <v>47.20655154895474</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G34" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H34" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J34" t="n">
         <v>192.6919004158277</v>
@@ -6864,19 +6864,19 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L34" t="n">
-        <v>901.6154856350191</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M34" t="n">
-        <v>1485.796561053334</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N34" t="n">
-        <v>2055.554276014868</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O34" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P34" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q34" t="n">
         <v>2343.856484770969</v>
@@ -6885,25 +6885,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S34" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T34" t="n">
         <v>1973.653814855378</v>
       </c>
       <c r="U34" t="n">
-        <v>1695.267182904121</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V34" t="n">
-        <v>1408.311674774552</v>
+        <v>1686.698306725808</v>
       </c>
       <c r="W34" t="n">
-        <v>1136.285270360843</v>
+        <v>1686.698306725808</v>
       </c>
       <c r="X34" t="n">
-        <v>890.8935156942559</v>
+        <v>1441.30655205922</v>
       </c>
       <c r="Y34" t="n">
-        <v>663.4738450083642</v>
+        <v>1213.886881373329</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2024.257796809404</v>
+        <v>1017.864239579285</v>
       </c>
       <c r="C35" t="n">
-        <v>1586.115323992828</v>
+        <v>579.7217667627087</v>
       </c>
       <c r="D35" t="n">
-        <v>1150.205539167272</v>
+        <v>143.8119819371532</v>
       </c>
       <c r="E35" t="n">
-        <v>716.4307943255671</v>
+        <v>143.8119819371532</v>
       </c>
       <c r="F35" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G35" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867026</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q35" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R35" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T35" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U35" t="n">
-        <v>2101.256885969251</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V35" t="n">
-        <v>2101.256885969251</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W35" t="n">
-        <v>2101.256885969251</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="X35" t="n">
-        <v>2024.257796809404</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="Y35" t="n">
-        <v>2024.257796809404</v>
+        <v>1444.163810064193</v>
       </c>
     </row>
     <row r="36">
@@ -6995,7 +6995,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D36" t="n">
         <v>341.0245550495863</v>
@@ -7007,13 +7007,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G36" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043091</v>
       </c>
       <c r="J36" t="n">
         <v>175.316627066898</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>743.0230756686125</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C37" t="n">
-        <v>743.0230756686125</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D37" t="n">
-        <v>577.1450828701352</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E37" t="n">
-        <v>407.3870791208724</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F37" t="n">
         <v>407.3870791208724</v>
@@ -7092,7 +7092,7 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J37" t="n">
         <v>106.1122152511379</v>
@@ -7101,19 +7101,19 @@
         <v>202.912315818696</v>
       </c>
       <c r="L37" t="n">
-        <v>744.992999204955</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M37" t="n">
-        <v>1160.879221014856</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N37" t="n">
-        <v>1288.378132818745</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O37" t="n">
-        <v>1825.813263392288</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P37" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
@@ -7122,25 +7122,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T37" t="n">
         <v>1973.653814855378</v>
       </c>
       <c r="U37" t="n">
-        <v>1695.267182904121</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V37" t="n">
-        <v>1408.311674774552</v>
+        <v>1686.698306725808</v>
       </c>
       <c r="W37" t="n">
-        <v>1136.285270360843</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="X37" t="n">
-        <v>890.8935156942559</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="Y37" t="n">
-        <v>743.0230756686125</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1674.957315484343</v>
+        <v>658.9737274659507</v>
       </c>
       <c r="C38" t="n">
-        <v>1344.758510807007</v>
+        <v>658.9737274659507</v>
       </c>
       <c r="D38" t="n">
-        <v>908.8487259814518</v>
+        <v>658.9737274659507</v>
       </c>
       <c r="E38" t="n">
-        <v>475.073981139747</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F38" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q38" t="n">
         <v>2243.650993163596</v>
@@ -7201,25 +7201,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U38" t="n">
-        <v>2101.256885969251</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V38" t="n">
-        <v>2101.256885969251</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W38" t="n">
-        <v>2101.256885969251</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="X38" t="n">
-        <v>2101.256885969251</v>
+        <v>1067.259851166297</v>
       </c>
       <c r="Y38" t="n">
-        <v>2101.256885969251</v>
+        <v>658.9737274659507</v>
       </c>
     </row>
     <row r="39">
@@ -7235,22 +7235,22 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E39" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G39" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J39" t="n">
         <v>175.316627066898</v>
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>471.655226289377</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C40" t="n">
-        <v>299.093514772602</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D40" t="n">
-        <v>299.093514772602</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="E40" t="n">
-        <v>299.093514772602</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F40" t="n">
-        <v>122.3864607343582</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G40" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J40" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K40" t="n">
-        <v>202.912315818696</v>
+        <v>393.4422361027639</v>
       </c>
       <c r="L40" t="n">
-        <v>744.992999204955</v>
+        <v>935.5229194890228</v>
       </c>
       <c r="M40" t="n">
-        <v>875.5973915434845</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N40" t="n">
-        <v>1445.355106505019</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O40" t="n">
-        <v>1825.813263392288</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P40" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
@@ -7359,25 +7359,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T40" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U40" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V40" t="n">
-        <v>1408.311674774552</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W40" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X40" t="n">
-        <v>890.8935156942559</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y40" t="n">
-        <v>663.4738450083642</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C41" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D41" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E41" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F41" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867024</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N41" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q41" t="n">
         <v>2243.650993163596</v>
@@ -7447,16 +7447,16 @@
         <v>1889.485634438363</v>
       </c>
       <c r="V41" t="n">
-        <v>1526.86868437219</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="W41" t="n">
-        <v>1122.013229783223</v>
+        <v>1124.716918025914</v>
       </c>
       <c r="X41" t="n">
-        <v>702.8707663625338</v>
+        <v>1124.716918025914</v>
       </c>
       <c r="Y41" t="n">
-        <v>702.8707663625338</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="42">
@@ -7472,22 +7472,22 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E42" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J42" t="n">
         <v>175.316627066898</v>
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>896.8524940391952</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C43" t="n">
-        <v>724.2907825224202</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D43" t="n">
-        <v>558.4127897239429</v>
+        <v>277.6420604698892</v>
       </c>
       <c r="E43" t="n">
-        <v>388.6547859746801</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F43" t="n">
-        <v>211.9477319364363</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J43" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K43" t="n">
-        <v>477.6707703898317</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L43" t="n">
-        <v>601.5415720081297</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M43" t="n">
-        <v>1185.722647426445</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N43" t="n">
-        <v>1755.480362387979</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O43" t="n">
-        <v>1873.246243735741</v>
+        <v>1815.289888492053</v>
       </c>
       <c r="P43" t="n">
-        <v>2274.089213540314</v>
+        <v>2263.565838640078</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
@@ -7605,16 +7605,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V43" t="n">
-        <v>1833.50894252437</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W43" t="n">
-        <v>1561.482538110662</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X43" t="n">
-        <v>1316.090783444074</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y43" t="n">
-        <v>1088.671112758182</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1081.54685999802</v>
+        <v>298.6606454014495</v>
       </c>
       <c r="C44" t="n">
-        <v>1081.54685999802</v>
+        <v>298.6606454014495</v>
       </c>
       <c r="D44" t="n">
-        <v>1081.54685999802</v>
+        <v>298.6606454014495</v>
       </c>
       <c r="E44" t="n">
-        <v>716.4307943255671</v>
+        <v>298.6606454014495</v>
       </c>
       <c r="F44" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G44" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N44" t="n">
         <v>1463.013992431967</v>
@@ -7678,22 +7678,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U44" t="n">
-        <v>1849.01926465316</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V44" t="n">
-        <v>1486.402314586987</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="W44" t="n">
-        <v>1081.54685999802</v>
+        <v>1552.388803007393</v>
       </c>
       <c r="X44" t="n">
-        <v>1081.54685999802</v>
+        <v>1133.246339586704</v>
       </c>
       <c r="Y44" t="n">
-        <v>1081.54685999802</v>
+        <v>724.9602158863573</v>
       </c>
     </row>
     <row r="45">
@@ -7709,13 +7709,13 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E45" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
         <v>79.1492015823585</v>
@@ -7724,25 +7724,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043085</v>
       </c>
       <c r="J45" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210684</v>
       </c>
       <c r="L45" t="n">
         <v>551.5786779960906</v>
       </c>
       <c r="M45" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O45" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P45" t="n">
         <v>1488.088567599445</v>
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1092.291841223631</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C46" t="n">
-        <v>919.7301297068562</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D46" t="n">
-        <v>753.852136908379</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E46" t="n">
-        <v>584.0941331591162</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F46" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G46" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H46" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J46" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K46" t="n">
-        <v>202.9123158186961</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L46" t="n">
-        <v>481.9462364092378</v>
+        <v>862.082053811994</v>
       </c>
       <c r="M46" t="n">
-        <v>1066.127311827553</v>
+        <v>992.6864461505235</v>
       </c>
       <c r="N46" t="n">
-        <v>1635.885026789087</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O46" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P46" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
@@ -7833,25 +7833,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T46" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U46" t="n">
-        <v>1843.092372485896</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V46" t="n">
-        <v>1556.136864356327</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.110459942618</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X46" t="n">
-        <v>1284.110459942618</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y46" t="n">
-        <v>1284.110459942618</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
   </sheetData>
@@ -7981,13 +7981,13 @@
         <v>418.1856318563248</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>230.4265510206587</v>
       </c>
       <c r="M2" t="n">
-        <v>230.4265510206588</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -7996,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>418.1856318563248</v>
@@ -8057,13 +8057,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="L3" t="n">
-        <v>256.6059585946581</v>
+        <v>346.95489856592</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8136,22 +8136,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>298.5661181480771</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>418.1856318563248</v>
+        <v>351.7637300692247</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="K5" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8230,16 +8230,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>418.1856318563248</v>
+        <v>230.4265510206588</v>
       </c>
       <c r="P5" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="Q5" t="n">
-        <v>401.2892426904129</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="L6" t="n">
-        <v>418.1856318563248</v>
+        <v>346.95489856592</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>256.6059585946581</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>418.1856318563248</v>
@@ -8373,22 +8373,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
         <v>418.1856318563248</v>
       </c>
-      <c r="M7" t="n">
-        <v>351.7637300692247</v>
-      </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>298.5661181480771</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="K8" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8528,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="L9" t="n">
-        <v>418.1856318563248</v>
+        <v>346.95489856592</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>282.9329011809789</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>418.1856318563248</v>
@@ -8616,16 +8616,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
+        <v>351.7637300692247</v>
+      </c>
+      <c r="M10" t="n">
         <v>418.1856318563248</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>351.7637300692247</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>43.60129403456517</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.3670431532728</v>
+        <v>16.8047027164539</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8850,19 +8850,19 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>265.4381349594563</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>209.095041520264</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>333.8768859352889</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>346.0449349349549</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>43.60129403456484</v>
       </c>
       <c r="K15" t="n">
-        <v>303.2987441336659</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>41.34265046785049</v>
+        <v>327.3670431532728</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>73.43689191893563</v>
       </c>
       <c r="M16" t="n">
-        <v>324.6857794047927</v>
+        <v>324.6857794047928</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>326.9089969136442</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>333.876885935289</v>
       </c>
       <c r="P16" t="n">
-        <v>199.3430630505372</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>161.4879868122089</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>135.6306929576781</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>327.3670431532728</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -9327,22 +9327,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>329.5063656617904</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>324.6857794047927</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>39.72838917090075</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>177.9839075203756</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9494,10 +9494,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>43.6012940345646</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>17.27435144824403</v>
       </c>
       <c r="Q21" t="n">
         <v>327.3670431532728</v>
@@ -9564,19 +9564,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>177.9839075203757</v>
       </c>
       <c r="M22" t="n">
-        <v>324.6857794047927</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>199.3430630505372</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821538</v>
@@ -9795,13 +9795,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.72999935692108</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>45.75904403825052</v>
       </c>
       <c r="M25" t="n">
         <v>458.158265737157</v>
@@ -9813,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -10038,10 +10038,10 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>263.871624324937</v>
       </c>
       <c r="M28" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -10050,7 +10050,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>156.7304232042866</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10269,19 +10269,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>458.1582657371571</v>
+        <v>357.5427697202093</v>
       </c>
       <c r="N31" t="n">
-        <v>181.022262991846</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10512,22 +10512,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>215.6507358204038</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10749,19 +10749,19 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="M37" t="n">
-        <v>288.1634641124963</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10980,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>105.0002374943213</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
@@ -10995,10 +10995,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>265.3457328681902</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11223,22 +11223,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>303.1049632594845</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>10.62967161639926</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>156.7304232042866</v>
+        <v>263.1722038422874</v>
       </c>
       <c r="M46" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22546,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>53.69867024100785</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>15.57541623208607</v>
       </c>
       <c r="D2" t="n">
-        <v>59.97818936840679</v>
+        <v>13.36505512097506</v>
       </c>
       <c r="E2" t="n">
         <v>11.25136553696291</v>
       </c>
       <c r="F2" t="n">
-        <v>5.403123438559476</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -22612,7 +22612,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -22643,7 +22643,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>23.71256375599542</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -22691,7 +22691,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>23.71256375599538</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22710,7 +22710,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -22719,13 +22719,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22755,10 +22755,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>5.392630223542398</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22770,7 +22770,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>112.8667413724124</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.248525907744</v>
+        <v>3.85094292373384</v>
       </c>
       <c r="C5" t="n">
-        <v>15.57541623208607</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>13.36505512097506</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>11.25136553696291</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -22801,7 +22801,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -22837,7 +22837,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -22849,7 +22849,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>303.2432139035849</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -22868,7 +22868,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>23.71256375599545</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -22922,7 +22922,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>23.71256375599529</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -22944,22 +22944,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>106.3531193432378</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>58.63754730019141</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -22992,10 +22992,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23010,7 +23010,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23023,16 +23023,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>424.4139241148719</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>13.36505512097506</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>11.25136553696291</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>5.403123438559476</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -23041,7 +23041,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23077,19 +23077,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>213.0998828856736</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -23111,13 +23111,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.71256375599543</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>23.71256375599542</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -23193,7 +23193,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>69.99067406508146</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -23229,10 +23229,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -23241,13 +23241,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>128.1276399941375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23263,19 +23263,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>13.36505512097506</v>
+        <v>42.59945755515884</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>11.25136553696291</v>
       </c>
       <c r="F11" t="n">
-        <v>5.403123438559476</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>396.054118850051</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>305.2514773576219</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>7.186295954747891</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>69.83578017384922</v>
@@ -23469,19 +23469,19 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>228.0202988201127</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23500,16 +23500,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>13.36505512097506</v>
       </c>
       <c r="E14" t="n">
-        <v>11.25136553696296</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>5.403123438559533</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>396.054118850051</v>
+        <v>291.5257879247986</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>52.51403670113841</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T14" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>305.2514773576219</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -23664,7 +23664,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>129.9160826755514</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.3388892342509</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>90.0088093004313</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>75.27005504649873</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -23743,7 +23743,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>5.403123438559533</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>7.102889427910043</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>104.1144356208873</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>79.51929284821665</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23949,10 +23949,10 @@
         <v>275.6161358490523</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.850942923733896</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>48.20618108653593</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>145.3592364082677</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -23983,10 +23983,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>52.51403670113841</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>212.0456433386444</v>
       </c>
       <c r="U20" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>28.88233722260432</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.3388892342509</v>
+        <v>79.51929284821665</v>
       </c>
       <c r="H22" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24183,19 +24183,19 @@
         <v>240.8720855447433</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24214,7 +24214,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>103.0399300069057</v>
       </c>
       <c r="W23" t="n">
-        <v>216.0245200560814</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>114.8692533779063</v>
       </c>
       <c r="G25" t="n">
-        <v>139.1683390918417</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>23.90632609724594</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T26" t="n">
-        <v>93.01395600350121</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>218.4486804042725</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>69.52134278359699</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24685,13 +24685,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>395.5076644073176</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>202.2894914660827</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>228.9184439736621</v>
       </c>
     </row>
     <row r="30">
@@ -24846,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>82.91154299085191</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>62.46433369811443</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>42.83502286159944</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24919,16 +24919,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>228.0585989847494</v>
+        <v>190.6650602925688</v>
       </c>
     </row>
     <row r="33">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>69.52134278359692</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>89.79110277694313</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,16 +25162,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>327.9493792105678</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25216,10 +25216,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>338.7219405182341</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>95.88964603324672</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>78.75373835364579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>106.8642314578482</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>90.8118291769905</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25557,19 +25557,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>144.1349942200055</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>88.66565849005737</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>168.436666521933</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25690,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>2.676651360264259</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25794,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>114.8692533779063</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
         <v>131.0206200144773</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>277.9630219615125</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -25873,16 +25873,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>67.97209237755925</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>174.6492023809145</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,10 +25918,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>114.8692533779064</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>146.3469376859573</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>362419.9787023242</v>
+        <v>362419.9787023241</v>
       </c>
     </row>
     <row r="3">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>326867.3001619775</v>
+        <v>326867.3001619776</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>416995.5100426819</v>
+        <v>416995.510042682</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>416995.5100426821</v>
+        <v>416995.510042682</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>416995.5100426821</v>
+        <v>416995.510042682</v>
       </c>
     </row>
   </sheetData>
@@ -26319,7 +26319,7 @@
         <v>106624.1883670972</v>
       </c>
       <c r="D2" t="n">
-        <v>106624.1883670972</v>
+        <v>106624.1883670973</v>
       </c>
       <c r="E2" t="n">
         <v>109551.128031233</v>
@@ -26337,10 +26337,10 @@
         <v>141567.8141707356</v>
       </c>
       <c r="J2" t="n">
-        <v>141567.8141707356</v>
+        <v>141567.8141707355</v>
       </c>
       <c r="K2" t="n">
-        <v>141567.8141707356</v>
+        <v>141567.8141707357</v>
       </c>
       <c r="L2" t="n">
         <v>141567.8141707356</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>148032.4060558944</v>
+        <v>148032.4060558943</v>
       </c>
       <c r="J3" t="n">
-        <v>109415.7614614162</v>
+        <v>109415.7614614163</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26429,37 +26429,37 @@
         <v>10748.89393158315</v>
       </c>
       <c r="F4" t="n">
-        <v>10748.89393158314</v>
+        <v>10748.89393158315</v>
       </c>
       <c r="G4" t="n">
-        <v>10748.89393158314</v>
+        <v>10748.89393158315</v>
       </c>
       <c r="H4" t="n">
-        <v>10748.89393158314</v>
+        <v>10748.89393158315</v>
       </c>
       <c r="I4" t="n">
+        <v>8489.594036050579</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8489.594036050579</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8489.594036050577</v>
+      </c>
+      <c r="L4" t="n">
         <v>8489.594036050581</v>
       </c>
-      <c r="J4" t="n">
-        <v>8489.594036050577</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8489.594036050579</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8489.594036050577</v>
-      </c>
       <c r="M4" t="n">
-        <v>8489.594036050579</v>
+        <v>8489.594036050576</v>
       </c>
       <c r="N4" t="n">
-        <v>8489.594036050579</v>
+        <v>8489.594036050576</v>
       </c>
       <c r="O4" t="n">
         <v>8489.594036050577</v>
       </c>
       <c r="P4" t="n">
-        <v>8489.594036050577</v>
+        <v>8489.594036050581</v>
       </c>
     </row>
     <row r="5">
@@ -26484,34 +26484,34 @@
         <v>32636.50261996421</v>
       </c>
       <c r="G5" t="n">
-        <v>32636.5026199642</v>
+        <v>32636.50261996421</v>
       </c>
       <c r="H5" t="n">
         <v>32636.50261996421</v>
       </c>
       <c r="I5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="J5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="K5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="L5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-147329.8975004541</v>
+        <v>-148077.9091981407</v>
       </c>
       <c r="C6" t="n">
-        <v>-7186.273995866977</v>
+        <v>-7934.285693553576</v>
       </c>
       <c r="D6" t="n">
-        <v>-7186.273995866984</v>
+        <v>-7934.285693553562</v>
       </c>
       <c r="E6" t="n">
-        <v>-199576.9919156756</v>
+        <v>-200308.7428374504</v>
       </c>
       <c r="F6" t="n">
-        <v>66165.7314796857</v>
+        <v>65433.98055791094</v>
       </c>
       <c r="G6" t="n">
-        <v>66165.73147968568</v>
+        <v>65433.98055791094</v>
       </c>
       <c r="H6" t="n">
-        <v>66165.73147968568</v>
+        <v>65433.98055791094</v>
       </c>
       <c r="I6" t="n">
-        <v>-61005.26713084718</v>
+        <v>-61559.14757406899</v>
       </c>
       <c r="J6" t="n">
-        <v>-22388.62253636905</v>
+        <v>-22942.50297959104</v>
       </c>
       <c r="K6" t="n">
-        <v>87027.1389250472</v>
+        <v>86473.25848182534</v>
       </c>
       <c r="L6" t="n">
-        <v>87027.13892504717</v>
+        <v>86473.25848182525</v>
       </c>
       <c r="M6" t="n">
-        <v>87027.13892504723</v>
+        <v>86473.25848182525</v>
       </c>
       <c r="N6" t="n">
-        <v>87027.1389250472</v>
+        <v>86473.25848182531</v>
       </c>
       <c r="O6" t="n">
-        <v>87027.1389250472</v>
+        <v>86473.25848182531</v>
       </c>
       <c r="P6" t="n">
-        <v>87027.13892504723</v>
+        <v>86473.25848182531</v>
       </c>
     </row>
   </sheetData>
@@ -26749,28 +26749,28 @@
         <v>330.7713854632872</v>
       </c>
       <c r="F3" t="n">
+        <v>330.7713854632871</v>
+      </c>
+      <c r="G3" t="n">
         <v>330.7713854632872</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>330.7713854632871</v>
       </c>
-      <c r="H3" t="n">
-        <v>330.7713854632872</v>
-      </c>
       <c r="I3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="J3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="K3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="N3" t="n">
         <v>466.7019280932212</v>
@@ -26779,7 +26779,7 @@
         <v>466.7019280932212</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
     </row>
     <row r="4">
@@ -26810,28 +26810,28 @@
         <v>418.1856318563248</v>
       </c>
       <c r="I4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="J4" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="K4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="L4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="O4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
     </row>
   </sheetData>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>135.930542629934</v>
+        <v>135.9305426299339</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>171.8962625056095</v>
+        <v>171.8962625056093</v>
       </c>
       <c r="J4" t="n">
-        <v>418.1856318563247</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I14" t="n">
-        <v>51.26457824351108</v>
+        <v>51.26457824351107</v>
       </c>
       <c r="J14" t="n">
         <v>112.8595291536268</v>
@@ -32004,13 +32004,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L14" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M14" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N14" t="n">
-        <v>237.2677999464442</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O14" t="n">
         <v>224.0452553667434</v>
@@ -32022,13 +32022,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R14" t="n">
-        <v>83.52891675219384</v>
+        <v>83.52891675219382</v>
       </c>
       <c r="S14" t="n">
-        <v>30.30131837686295</v>
+        <v>30.30131837686294</v>
       </c>
       <c r="T14" t="n">
-        <v>5.820911517047394</v>
+        <v>5.820911517047393</v>
       </c>
       <c r="U14" t="n">
         <v>0.1063787370334189</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7114705272229196</v>
+        <v>0.7114705272229195</v>
       </c>
       <c r="H15" t="n">
-        <v>6.871307460284514</v>
+        <v>6.871307460284513</v>
       </c>
       <c r="I15" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J15" t="n">
-        <v>67.2183623987233</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K15" t="n">
         <v>114.8868877226589</v>
@@ -32098,10 +32098,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.81858870305199</v>
+        <v>90.81858870305197</v>
       </c>
       <c r="R15" t="n">
-        <v>44.17358238319147</v>
+        <v>44.17358238319146</v>
       </c>
       <c r="S15" t="n">
         <v>13.21525299468887</v>
@@ -32110,7 +32110,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04680727152782368</v>
+        <v>0.04680727152782367</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5964729901796981</v>
+        <v>0.596472990179698</v>
       </c>
       <c r="H16" t="n">
-        <v>5.303187130870411</v>
+        <v>5.30318713087041</v>
       </c>
       <c r="I16" t="n">
         <v>17.9375695592222</v>
@@ -32159,25 +32159,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K16" t="n">
-        <v>69.2993164954231</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L16" t="n">
-        <v>88.67926619453441</v>
+        <v>88.67926619453439</v>
       </c>
       <c r="M16" t="n">
-        <v>93.49985245153212</v>
+        <v>93.49985245153211</v>
       </c>
       <c r="N16" t="n">
-        <v>91.27663494268059</v>
+        <v>91.27663494268057</v>
       </c>
       <c r="O16" t="n">
-        <v>84.30874592103591</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P16" t="n">
-        <v>72.14069692137001</v>
+        <v>72.14069692136999</v>
       </c>
       <c r="Q16" t="n">
-        <v>49.94647920495636</v>
+        <v>49.94647920495635</v>
       </c>
       <c r="R16" t="n">
         <v>26.81959463117078</v>
@@ -32189,7 +32189,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03253489037343812</v>
+        <v>0.03253489037343811</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,7 +32232,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I17" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J17" t="n">
         <v>112.8595291536268</v>
@@ -32241,13 +32241,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L17" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M17" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N17" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O17" t="n">
         <v>224.0452553667434</v>
@@ -32259,13 +32259,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R17" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S17" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T17" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U17" t="n">
         <v>0.1063787370334189</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H18" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I18" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J18" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K18" t="n">
         <v>114.8868877226589</v>
@@ -32335,10 +32335,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R18" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S18" t="n">
         <v>13.21525299468887</v>
@@ -32347,7 +32347,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H19" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I19" t="n">
         <v>17.9375695592222</v>
@@ -32396,25 +32396,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K19" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L19" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M19" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N19" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O19" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P19" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R19" t="n">
         <v>26.81959463117078</v>
@@ -32426,7 +32426,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I20" t="n">
-        <v>51.26457824351108</v>
+        <v>51.26457824351107</v>
       </c>
       <c r="J20" t="n">
         <v>112.8595291536268</v>
@@ -32478,13 +32478,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L20" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M20" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N20" t="n">
-        <v>237.2677999464442</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O20" t="n">
         <v>224.0452553667434</v>
@@ -32496,13 +32496,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R20" t="n">
-        <v>83.52891675219384</v>
+        <v>83.52891675219382</v>
       </c>
       <c r="S20" t="n">
-        <v>30.30131837686295</v>
+        <v>30.30131837686294</v>
       </c>
       <c r="T20" t="n">
-        <v>5.820911517047394</v>
+        <v>5.820911517047393</v>
       </c>
       <c r="U20" t="n">
         <v>0.1063787370334189</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7114705272229196</v>
+        <v>0.7114705272229195</v>
       </c>
       <c r="H21" t="n">
-        <v>6.871307460284514</v>
+        <v>6.871307460284513</v>
       </c>
       <c r="I21" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J21" t="n">
-        <v>67.2183623987233</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K21" t="n">
         <v>114.8868877226589</v>
@@ -32572,10 +32572,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.81858870305199</v>
+        <v>90.81858870305197</v>
       </c>
       <c r="R21" t="n">
-        <v>44.17358238319147</v>
+        <v>44.17358238319146</v>
       </c>
       <c r="S21" t="n">
         <v>13.21525299468887</v>
@@ -32584,7 +32584,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04680727152782368</v>
+        <v>0.04680727152782367</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5964729901796981</v>
+        <v>0.596472990179698</v>
       </c>
       <c r="H22" t="n">
-        <v>5.303187130870411</v>
+        <v>5.30318713087041</v>
       </c>
       <c r="I22" t="n">
         <v>17.9375695592222</v>
@@ -32633,25 +32633,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K22" t="n">
-        <v>69.2993164954231</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L22" t="n">
-        <v>88.67926619453441</v>
+        <v>88.67926619453439</v>
       </c>
       <c r="M22" t="n">
-        <v>93.49985245153212</v>
+        <v>93.49985245153211</v>
       </c>
       <c r="N22" t="n">
-        <v>91.27663494268059</v>
+        <v>91.27663494268057</v>
       </c>
       <c r="O22" t="n">
-        <v>84.30874592103591</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P22" t="n">
-        <v>72.14069692137001</v>
+        <v>72.14069692136999</v>
       </c>
       <c r="Q22" t="n">
-        <v>49.94647920495636</v>
+        <v>49.94647920495635</v>
       </c>
       <c r="R22" t="n">
         <v>26.81959463117078</v>
@@ -32663,7 +32663,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03253489037343812</v>
+        <v>0.03253489037343811</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H23" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,46 +32782,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I24" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -32879,28 +32879,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O25" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R25" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H26" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R26" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S26" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,46 +33019,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I27" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -33116,28 +33116,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O28" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R28" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,28 +33180,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -33213,7 +33213,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U29" t="n">
         <v>0.1500950924520911</v>
@@ -33256,13 +33256,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I30" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -33274,25 +33274,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U30" t="n">
         <v>0.06604272567356906</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
@@ -33344,7 +33344,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
@@ -33368,10 +33368,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U31" t="n">
         <v>0.04590510768130049</v>
@@ -33417,28 +33417,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -33450,7 +33450,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U32" t="n">
         <v>0.1500950924520911</v>
@@ -33493,13 +33493,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I33" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -33511,25 +33511,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U33" t="n">
         <v>0.06604272567356906</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
@@ -33581,7 +33581,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -33605,10 +33605,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U34" t="n">
         <v>0.04590510768130049</v>
@@ -33654,28 +33654,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -33687,7 +33687,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U35" t="n">
         <v>0.1500950924520911</v>
@@ -33730,13 +33730,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I36" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -33748,25 +33748,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U36" t="n">
         <v>0.06604272567356906</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
@@ -33818,7 +33818,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -33842,10 +33842,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U37" t="n">
         <v>0.04590510768130049</v>
@@ -34143,7 +34143,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
         <v>316.1166813548411</v>
@@ -34158,10 +34158,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U41" t="n">
         <v>0.1500950924520911</v>
@@ -34204,10 +34204,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
         <v>94.84175691562339</v>
@@ -34216,7 +34216,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
@@ -34234,16 +34234,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S42" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,25 +34280,25 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H43" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I43" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
         <v>128.7867795998885</v>
@@ -34310,10 +34310,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R43" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
         <v>14.66668190417549</v>
@@ -34322,7 +34322,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,28 +34365,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J44" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -34395,10 +34395,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U44" t="n">
         <v>0.1500950924520911</v>
@@ -34441,46 +34441,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S45" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,25 +34517,25 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
         <v>128.7867795998885</v>
@@ -34547,19 +34547,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R46" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,13 +34701,13 @@
         <v>418.1856318563248</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>230.4265510206587</v>
       </c>
       <c r="M2" t="n">
-        <v>230.4265510206588</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34716,7 +34716,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>418.1856318563248</v>
@@ -34777,13 +34777,13 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="L3" t="n">
-        <v>256.6059585946581</v>
+        <v>346.95489856592</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34792,7 +34792,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34856,22 +34856,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>298.5661181480771</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>418.1856318563248</v>
+        <v>351.7637300692247</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34935,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="K5" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34950,16 +34950,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>418.1856318563248</v>
+        <v>230.4265510206588</v>
       </c>
       <c r="P5" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="Q5" t="n">
-        <v>401.2892426904129</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697542</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="L6" t="n">
-        <v>418.1856318563248</v>
+        <v>346.95489856592</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>256.6059585946581</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>418.1856318563248</v>
@@ -35093,22 +35093,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
         <v>418.1856318563248</v>
       </c>
-      <c r="M7" t="n">
-        <v>351.7637300692247</v>
-      </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>298.5661181480771</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="K8" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35248,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="L9" t="n">
-        <v>418.1856318563248</v>
+        <v>346.95489856592</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35266,10 +35266,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>282.9329011809789</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>418.1856318563248</v>
@@ -35336,16 +35336,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
+        <v>351.7637300692247</v>
+      </c>
+      <c r="M10" t="n">
         <v>418.1856318563248</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>351.7637300692247</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -35409,7 +35409,7 @@
         <v>50.85195676437969</v>
       </c>
       <c r="J11" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K11" t="n">
         <v>169.1471783864346</v>
@@ -35418,10 +35418,10 @@
         <v>209.8420318050159</v>
       </c>
       <c r="M11" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N11" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O11" t="n">
         <v>224.0452553667435</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>24.49580543289438</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J12" t="n">
-        <v>67.2183623987233</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K12" t="n">
         <v>114.8868877226589</v>
@@ -35503,13 +35503,13 @@
         <v>185.041626288561</v>
       </c>
       <c r="O12" t="n">
-        <v>169.27693723799</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P12" t="n">
-        <v>179.4609598864575</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q12" t="n">
-        <v>418.1856318563248</v>
+        <v>107.6232914195059</v>
       </c>
       <c r="R12" t="n">
         <v>162.5299238926254</v>
@@ -35570,19 +35570,19 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K13" t="n">
-        <v>69.29931649542308</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L13" t="n">
-        <v>88.67926619453442</v>
+        <v>354.1174011539907</v>
       </c>
       <c r="M13" t="n">
         <v>93.49985245153209</v>
       </c>
       <c r="N13" t="n">
-        <v>300.3716764629446</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O13" t="n">
-        <v>418.1856318563248</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P13" t="n">
         <v>418.1856318563248</v>
@@ -35643,10 +35643,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>50.85195676437969</v>
+        <v>50.85195676437968</v>
       </c>
       <c r="J14" t="n">
-        <v>112.8595291536269</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K14" t="n">
         <v>169.1471783864346</v>
@@ -35658,7 +35658,7 @@
         <v>233.4896926139916</v>
       </c>
       <c r="N14" t="n">
-        <v>237.2677999464443</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O14" t="n">
         <v>224.0452553667433</v>
@@ -35667,7 +35667,7 @@
         <v>191.2174419853368</v>
       </c>
       <c r="Q14" t="n">
-        <v>143.5963354852204</v>
+        <v>143.5963354852202</v>
       </c>
       <c r="R14" t="n">
         <v>83.52891675219394</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>50.8227480192152</v>
+        <v>24.49580543289438</v>
       </c>
       <c r="J15" t="n">
-        <v>67.21836239872329</v>
+        <v>110.8196564332881</v>
       </c>
       <c r="K15" t="n">
-        <v>418.1856318563248</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L15" t="n">
         <v>154.4795984656607</v>
@@ -35740,16 +35740,16 @@
         <v>185.041626288561</v>
       </c>
       <c r="O15" t="n">
-        <v>169.2769372379901</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P15" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q15" t="n">
-        <v>132.1612391709025</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="R15" t="n">
-        <v>162.5299238926257</v>
+        <v>162.5299238926254</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>129.6248678447853</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K16" t="n">
-        <v>346.8331089915197</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L16" t="n">
-        <v>88.67926619453442</v>
+        <v>162.11615811347</v>
       </c>
       <c r="M16" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="N16" t="n">
-        <v>91.27663494268063</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="O16" t="n">
-        <v>84.30874592103601</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="P16" t="n">
-        <v>271.4837599719071</v>
+        <v>72.14069692136991</v>
       </c>
       <c r="Q16" t="n">
-        <v>219.8381709871103</v>
+        <v>49.9464792049564</v>
       </c>
       <c r="R16" t="n">
-        <v>5.615951549488948</v>
+        <v>5.615951549488944</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,10 +35880,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J17" t="n">
-        <v>112.8595291536267</v>
+        <v>112.8595291536272</v>
       </c>
       <c r="K17" t="n">
         <v>169.1471783864346</v>
@@ -35892,13 +35892,13 @@
         <v>209.8420318050158</v>
       </c>
       <c r="M17" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139918</v>
       </c>
       <c r="N17" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O17" t="n">
-        <v>224.0452553667435</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P17" t="n">
         <v>191.2174419853368</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>24.49580543289438</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J18" t="n">
-        <v>395.0550542837863</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K18" t="n">
         <v>114.8868877226589</v>
       </c>
       <c r="L18" t="n">
-        <v>315.9675852778695</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M18" t="n">
-        <v>180.2704050774914</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N18" t="n">
         <v>185.041626288561</v>
       </c>
       <c r="O18" t="n">
-        <v>169.2769372379898</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P18" t="n">
-        <v>135.8596658518925</v>
+        <v>271.4903588095705</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.818588703052</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="R18" t="n">
         <v>44.17358238319139</v>
@@ -36047,25 +36047,25 @@
         <v>346.8331089915197</v>
       </c>
       <c r="L19" t="n">
+        <v>88.67926619453442</v>
+      </c>
+      <c r="M19" t="n">
+        <v>93.49985245153209</v>
+      </c>
+      <c r="N19" t="n">
+        <v>91.27663494268063</v>
+      </c>
+      <c r="O19" t="n">
+        <v>262.2926534414115</v>
+      </c>
+      <c r="P19" t="n">
         <v>418.1856318563248</v>
       </c>
-      <c r="M19" t="n">
-        <v>418.1856318563248</v>
-      </c>
-      <c r="N19" t="n">
-        <v>131.0050241135814</v>
-      </c>
-      <c r="O19" t="n">
-        <v>84.30874592103601</v>
-      </c>
-      <c r="P19" t="n">
-        <v>72.14069692136991</v>
-      </c>
       <c r="Q19" t="n">
-        <v>49.9464792049564</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R19" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,10 +36117,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>50.85195676437969</v>
+        <v>50.85195676437968</v>
       </c>
       <c r="J20" t="n">
-        <v>112.859529153627</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K20" t="n">
         <v>169.1471783864346</v>
@@ -36129,22 +36129,22 @@
         <v>209.8420318050158</v>
       </c>
       <c r="M20" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N20" t="n">
         <v>237.2677999464441</v>
       </c>
       <c r="O20" t="n">
-        <v>224.0452553667435</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P20" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q20" t="n">
-        <v>143.5963354852204</v>
+        <v>143.5963354852202</v>
       </c>
       <c r="R20" t="n">
-        <v>83.52891675219371</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>24.49580543289439</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J21" t="n">
-        <v>67.2183623987233</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K21" t="n">
         <v>114.8868877226589</v>
@@ -36214,16 +36214,16 @@
         <v>185.041626288561</v>
       </c>
       <c r="O21" t="n">
-        <v>212.8782312725546</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P21" t="n">
-        <v>135.8596658518925</v>
+        <v>153.1340173001365</v>
       </c>
       <c r="Q21" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="R21" t="n">
-        <v>162.5299238926257</v>
+        <v>162.5299238926254</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36284,25 +36284,25 @@
         <v>346.8331089915197</v>
       </c>
       <c r="L22" t="n">
-        <v>88.67926619453442</v>
+        <v>266.6631737149102</v>
       </c>
       <c r="M22" t="n">
+        <v>93.49985245153209</v>
+      </c>
+      <c r="N22" t="n">
+        <v>91.27663494268052</v>
+      </c>
+      <c r="O22" t="n">
+        <v>84.30874592103589</v>
+      </c>
+      <c r="P22" t="n">
         <v>418.1856318563248</v>
       </c>
-      <c r="N22" t="n">
-        <v>290.6196979932179</v>
-      </c>
-      <c r="O22" t="n">
-        <v>84.30874592103601</v>
-      </c>
-      <c r="P22" t="n">
-        <v>72.14069692136991</v>
-      </c>
       <c r="Q22" t="n">
-        <v>219.8381709871103</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R22" t="n">
-        <v>5.615951549488948</v>
+        <v>5.615951549488944</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,19 +36354,19 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J23" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916796</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
@@ -36515,31 +36515,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>119.2306697631667</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L25" t="n">
-        <v>125.1220218366646</v>
+        <v>170.8810658749151</v>
       </c>
       <c r="M25" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N25" t="n">
-        <v>575.5128433954891</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O25" t="n">
         <v>118.9554357048098</v>
       </c>
       <c r="P25" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
         <v>240.36368292423</v>
       </c>
       <c r="R25" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,13 +36591,13 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J26" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
         <v>296.0766412766674</v>
@@ -36612,7 +36612,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -36673,13 +36673,13 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
@@ -36697,7 +36697,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233645</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
-        <v>125.1220218366646</v>
+        <v>388.9936461616016</v>
       </c>
       <c r="M28" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N28" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O28" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>258.5173486362901</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R28" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,16 +36828,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
         <v>329.4423112816032</v>
@@ -36846,10 +36846,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L30" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L31" t="n">
-        <v>547.5562458447062</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M31" t="n">
-        <v>590.0818943619342</v>
+        <v>489.4663983449866</v>
       </c>
       <c r="N31" t="n">
-        <v>309.8090425917344</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O31" t="n">
         <v>542.8637682561043</v>
@@ -37010,7 +37010,7 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37065,16 +37065,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
         <v>329.4423112816032</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916786</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K34" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
-        <v>340.7727576570684</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M34" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O34" t="n">
-        <v>118.95543570481</v>
+        <v>296.1475206512696</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027015</v>
@@ -37302,19 +37302,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J35" t="n">
-        <v>159.2391669125713</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
@@ -37323,13 +37323,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916786</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -37466,22 +37466,22 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
-        <v>547.5562458447062</v>
+        <v>281.852445040951</v>
       </c>
       <c r="M37" t="n">
-        <v>420.0870927372735</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O37" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
         <v>70.4719911420766</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562339</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116989</v>
+        <v>202.7781168554911</v>
       </c>
       <c r="L40" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M40" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O40" t="n">
-        <v>384.301168573</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
         <v>70.4719911420766</v>
@@ -37782,13 +37782,13 @@
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J42" t="n">
         <v>94.84175691562339</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>375.3116718572665</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
-        <v>125.1220218366647</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M43" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
-        <v>118.95543570481</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
-        <v>404.891888691488</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.4719911420766</v>
+        <v>81.10166275847587</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027015</v>
@@ -38013,25 +38013,25 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766676</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
         <v>269.7982739184533</v>
@@ -38040,7 +38040,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.8551356405465</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L45" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116994</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>281.8524450409512</v>
+        <v>388.294225678952</v>
       </c>
       <c r="M46" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027015</v>
